--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ifnb1-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ifnb1-Ifnar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ifnb1</t>
+  </si>
+  <si>
+    <t>Ifnar2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ifnb1</t>
-  </si>
-  <si>
-    <t>Ifnar2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03958166666666667</v>
+        <v>0.001763</v>
       </c>
       <c r="H2">
-        <v>0.118745</v>
+        <v>0.005289</v>
       </c>
       <c r="I2">
-        <v>0.9340879770932318</v>
+        <v>0.6312209094163982</v>
       </c>
       <c r="J2">
-        <v>0.9340879770932318</v>
+        <v>0.6312209094163981</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.57468866666667</v>
+        <v>16.69780766666667</v>
       </c>
       <c r="N2">
-        <v>133.724066</v>
+        <v>50.093423</v>
       </c>
       <c r="O2">
-        <v>0.5438239100642481</v>
+        <v>0.3087131902856588</v>
       </c>
       <c r="P2">
-        <v>0.5438239100642481</v>
+        <v>0.3087131902856588</v>
       </c>
       <c r="Q2">
-        <v>1.764340468574445</v>
+        <v>0.02943823491633333</v>
       </c>
       <c r="R2">
-        <v>15.87906421717</v>
+        <v>0.264944114247</v>
       </c>
       <c r="S2">
-        <v>0.5079793760468452</v>
+        <v>0.1948662207209511</v>
       </c>
       <c r="T2">
-        <v>0.5079793760468452</v>
+        <v>0.1948662207209511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03958166666666667</v>
+        <v>0.001763</v>
       </c>
       <c r="H3">
-        <v>0.118745</v>
+        <v>0.005289</v>
       </c>
       <c r="I3">
-        <v>0.9340879770932318</v>
+        <v>0.6312209094163982</v>
       </c>
       <c r="J3">
-        <v>0.9340879770932318</v>
+        <v>0.6312209094163981</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>27.876023</v>
       </c>
       <c r="N3">
-        <v>83.62806900000001</v>
+        <v>83.628069</v>
       </c>
       <c r="O3">
-        <v>0.3400954281086752</v>
+        <v>0.5153787949052554</v>
       </c>
       <c r="P3">
-        <v>0.3400954281086753</v>
+        <v>0.5153787949052554</v>
       </c>
       <c r="Q3">
-        <v>1.103379450378333</v>
+        <v>0.049145428549</v>
       </c>
       <c r="R3">
-        <v>9.930415053405001</v>
+        <v>0.442308856941</v>
       </c>
       <c r="S3">
-        <v>0.3176790504606891</v>
+        <v>0.3253178716140227</v>
       </c>
       <c r="T3">
-        <v>0.3176790504606891</v>
+        <v>0.3253178716140226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03958166666666667</v>
+        <v>0.001763</v>
       </c>
       <c r="H4">
-        <v>0.118745</v>
+        <v>0.005289</v>
       </c>
       <c r="I4">
-        <v>0.9340879770932318</v>
+        <v>0.6312209094163982</v>
       </c>
       <c r="J4">
-        <v>0.9340879770932318</v>
+        <v>0.6312209094163981</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>28.543758</v>
       </c>
       <c r="O4">
-        <v>0.1160806618270765</v>
+        <v>0.1759080148090858</v>
       </c>
       <c r="P4">
-        <v>0.1160806618270766</v>
+        <v>0.1759080148090857</v>
       </c>
       <c r="Q4">
-        <v>0.3766031715233334</v>
+        <v>0.016774215118</v>
       </c>
       <c r="R4">
-        <v>3.389428543710001</v>
+        <v>0.150967936062</v>
       </c>
       <c r="S4">
-        <v>0.1084295505856974</v>
+        <v>0.1110368170814244</v>
       </c>
       <c r="T4">
-        <v>0.1084295505856975</v>
+        <v>0.1110368170814243</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.001763</v>
+        <v>0.00103</v>
       </c>
       <c r="H5">
-        <v>0.005289</v>
+        <v>0.00309</v>
       </c>
       <c r="I5">
-        <v>0.04160504704068468</v>
+        <v>0.3687790905836018</v>
       </c>
       <c r="J5">
-        <v>0.04160504704068468</v>
+        <v>0.3687790905836018</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.57468866666667</v>
+        <v>16.69780766666667</v>
       </c>
       <c r="N5">
-        <v>133.724066</v>
+        <v>50.093423</v>
       </c>
       <c r="O5">
-        <v>0.5438239100642481</v>
+        <v>0.3087131902856588</v>
       </c>
       <c r="P5">
-        <v>0.5438239100642481</v>
+        <v>0.3087131902856588</v>
       </c>
       <c r="Q5">
-        <v>0.07858517611933334</v>
+        <v>0.01719874189666666</v>
       </c>
       <c r="R5">
-        <v>0.707266585074</v>
+        <v>0.15478867707</v>
       </c>
       <c r="S5">
-        <v>0.02262581936007212</v>
+        <v>0.1138469695647077</v>
       </c>
       <c r="T5">
-        <v>0.02262581936007212</v>
+        <v>0.1138469695647077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.001763</v>
+        <v>0.00103</v>
       </c>
       <c r="H6">
-        <v>0.005289</v>
+        <v>0.00309</v>
       </c>
       <c r="I6">
-        <v>0.04160504704068468</v>
+        <v>0.3687790905836018</v>
       </c>
       <c r="J6">
-        <v>0.04160504704068468</v>
+        <v>0.3687790905836018</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>27.876023</v>
       </c>
       <c r="N6">
-        <v>83.62806900000001</v>
+        <v>83.628069</v>
       </c>
       <c r="O6">
-        <v>0.3400954281086752</v>
+        <v>0.5153787949052554</v>
       </c>
       <c r="P6">
-        <v>0.3400954281086753</v>
+        <v>0.5153787949052554</v>
       </c>
       <c r="Q6">
-        <v>0.04914542854900001</v>
+        <v>0.02871230369</v>
       </c>
       <c r="R6">
-        <v>0.4423088569410001</v>
+        <v>0.25841073321</v>
       </c>
       <c r="S6">
-        <v>0.01414968628478323</v>
+        <v>0.1900609232912327</v>
       </c>
       <c r="T6">
-        <v>0.01414968628478323</v>
+        <v>0.1900609232912327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.001763</v>
+        <v>0.00103</v>
       </c>
       <c r="H7">
-        <v>0.005289</v>
+        <v>0.00309</v>
       </c>
       <c r="I7">
-        <v>0.04160504704068468</v>
+        <v>0.3687790905836018</v>
       </c>
       <c r="J7">
-        <v>0.04160504704068468</v>
+        <v>0.3687790905836018</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>28.543758</v>
       </c>
       <c r="O7">
-        <v>0.1160806618270765</v>
+        <v>0.1759080148090858</v>
       </c>
       <c r="P7">
-        <v>0.1160806618270766</v>
+        <v>0.1759080148090857</v>
       </c>
       <c r="Q7">
-        <v>0.016774215118</v>
+        <v>0.009800023580000001</v>
       </c>
       <c r="R7">
-        <v>0.150967936062</v>
+        <v>0.08820021222</v>
       </c>
       <c r="S7">
-        <v>0.00482954139582933</v>
+        <v>0.06487119772766141</v>
       </c>
       <c r="T7">
-        <v>0.004829541395829332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.00103</v>
-      </c>
-      <c r="H8">
-        <v>0.00309</v>
-      </c>
-      <c r="I8">
-        <v>0.02430697586608351</v>
-      </c>
-      <c r="J8">
-        <v>0.02430697586608351</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>44.57468866666667</v>
-      </c>
-      <c r="N8">
-        <v>133.724066</v>
-      </c>
-      <c r="O8">
-        <v>0.5438239100642481</v>
-      </c>
-      <c r="P8">
-        <v>0.5438239100642481</v>
-      </c>
-      <c r="Q8">
-        <v>0.04591192932666666</v>
-      </c>
-      <c r="R8">
-        <v>0.41320736394</v>
-      </c>
-      <c r="S8">
-        <v>0.01321871465733085</v>
-      </c>
-      <c r="T8">
-        <v>0.01321871465733085</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.00103</v>
-      </c>
-      <c r="H9">
-        <v>0.00309</v>
-      </c>
-      <c r="I9">
-        <v>0.02430697586608351</v>
-      </c>
-      <c r="J9">
-        <v>0.02430697586608351</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>27.876023</v>
-      </c>
-      <c r="N9">
-        <v>83.62806900000001</v>
-      </c>
-      <c r="O9">
-        <v>0.3400954281086752</v>
-      </c>
-      <c r="P9">
-        <v>0.3400954281086753</v>
-      </c>
-      <c r="Q9">
-        <v>0.02871230369</v>
-      </c>
-      <c r="R9">
-        <v>0.25841073321</v>
-      </c>
-      <c r="S9">
-        <v>0.008266691363202907</v>
-      </c>
-      <c r="T9">
-        <v>0.008266691363202907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.00103</v>
-      </c>
-      <c r="H10">
-        <v>0.00309</v>
-      </c>
-      <c r="I10">
-        <v>0.02430697586608351</v>
-      </c>
-      <c r="J10">
-        <v>0.02430697586608351</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>9.514586000000001</v>
-      </c>
-      <c r="N10">
-        <v>28.543758</v>
-      </c>
-      <c r="O10">
-        <v>0.1160806618270765</v>
-      </c>
-      <c r="P10">
-        <v>0.1160806618270766</v>
-      </c>
-      <c r="Q10">
-        <v>0.009800023580000001</v>
-      </c>
-      <c r="R10">
-        <v>0.08820021222</v>
-      </c>
-      <c r="S10">
-        <v>0.00282156984554975</v>
-      </c>
-      <c r="T10">
-        <v>0.002821569845549751</v>
+        <v>0.06487119772766139</v>
       </c>
     </row>
   </sheetData>
